--- a/a-a-mid2017.xlsx
+++ b/a-a-mid2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/v/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/v/Dropbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -354,8 +354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B891"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A844" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B865" sqref="B865"/>
+    <sheetView tabSelected="1" topLeftCell="A681" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D696" sqref="D696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5916,1338 +5916,513 @@
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A695" s="1">
-        <v>42917</v>
-      </c>
-      <c r="B695">
-        <v>274.60000000000002</v>
-      </c>
+      <c r="A695" s="1"/>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A696" s="1">
-        <v>42918</v>
-      </c>
-      <c r="B696">
-        <v>287.99</v>
-      </c>
+      <c r="A696" s="1"/>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A697" s="1">
-        <v>42919</v>
-      </c>
-      <c r="B697">
-        <v>282.89999999999998</v>
-      </c>
+      <c r="A697" s="1"/>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A698" s="1">
-        <v>42920</v>
-      </c>
-      <c r="B698">
-        <v>273.3</v>
-      </c>
+      <c r="A698" s="1"/>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A699" s="1">
-        <v>42921</v>
-      </c>
-      <c r="B699">
-        <v>268.77</v>
-      </c>
+      <c r="A699" s="1"/>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A700" s="1">
-        <v>42922</v>
-      </c>
-      <c r="B700">
-        <v>270.55</v>
-      </c>
+      <c r="A700" s="1"/>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A701" s="1">
-        <v>42923</v>
-      </c>
-      <c r="B701">
-        <v>245.99</v>
-      </c>
+      <c r="A701" s="1"/>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A702" s="1">
-        <v>42924</v>
-      </c>
-      <c r="B702">
-        <v>251.7</v>
-      </c>
+      <c r="A702" s="1"/>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A703" s="1">
-        <v>42925</v>
-      </c>
-      <c r="B703">
-        <v>242.14</v>
-      </c>
+      <c r="A703" s="1"/>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A704" s="1">
-        <v>42926</v>
-      </c>
-      <c r="B704">
-        <v>215.36</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A705" s="1">
-        <v>42927</v>
-      </c>
-      <c r="B705">
-        <v>197.4</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A706" s="1">
-        <v>42928</v>
-      </c>
-      <c r="B706">
-        <v>230.77</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A707" s="1">
-        <v>42929</v>
-      </c>
-      <c r="B707">
-        <v>209.73</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A708" s="1">
-        <v>42930</v>
-      </c>
-      <c r="B708">
-        <v>199.66</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A709" s="1">
-        <v>42931</v>
-      </c>
-      <c r="B709">
-        <v>170.66</v>
-      </c>
-    </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A710" s="1">
-        <v>42932</v>
-      </c>
-      <c r="B710">
-        <v>157.36000000000001</v>
-      </c>
-    </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A711" s="1">
-        <v>42933</v>
-      </c>
-      <c r="B711">
-        <v>193.42</v>
-      </c>
-    </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A712" s="1">
-        <v>42934</v>
-      </c>
-      <c r="B712">
-        <v>234.39</v>
-      </c>
-    </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A713" s="1">
-        <v>42935</v>
-      </c>
-      <c r="B713">
-        <v>199.7</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A714" s="1">
-        <v>42936</v>
-      </c>
-      <c r="B714">
-        <v>227.26</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A715" s="1">
-        <v>42937</v>
-      </c>
-      <c r="B715">
-        <v>218.31</v>
-      </c>
-    </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A716" s="1">
-        <v>42938</v>
-      </c>
-      <c r="B716">
-        <v>229.48</v>
-      </c>
-    </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A717" s="1">
-        <v>42939</v>
-      </c>
-      <c r="B717">
-        <v>225.95</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A718" s="1">
-        <v>42940</v>
-      </c>
-      <c r="B718">
-        <v>224.71</v>
-      </c>
-    </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A719" s="1">
-        <v>42941</v>
-      </c>
-      <c r="B719">
-        <v>206.71</v>
-      </c>
-    </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A720" s="1">
-        <v>42942</v>
-      </c>
-      <c r="B720">
-        <v>203.95</v>
-      </c>
-    </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A721" s="1">
-        <v>42943</v>
-      </c>
-      <c r="B721">
-        <v>204.32</v>
-      </c>
-    </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A722" s="1">
-        <v>42944</v>
-      </c>
-      <c r="B722">
-        <v>193.12</v>
-      </c>
-    </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A723" s="1">
-        <v>42945</v>
-      </c>
-      <c r="B723">
-        <v>205.79</v>
-      </c>
-    </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A724" s="1">
-        <v>42946</v>
-      </c>
-      <c r="B724">
-        <v>197.98</v>
-      </c>
-    </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A725" s="1">
-        <v>42947</v>
-      </c>
-      <c r="B725">
-        <v>203.87</v>
-      </c>
-    </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A726" s="1">
-        <v>42948</v>
-      </c>
-      <c r="B726">
-        <v>226.77</v>
-      </c>
-    </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A727" s="1">
-        <v>42949</v>
-      </c>
-      <c r="B727">
-        <v>219.95</v>
-      </c>
-    </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A728" s="1">
-        <v>42950</v>
-      </c>
-      <c r="B728">
-        <v>225.34</v>
-      </c>
-    </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A729" s="1">
-        <v>42951</v>
-      </c>
-      <c r="B729">
-        <v>223.07</v>
-      </c>
-    </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A730" s="1">
-        <v>42952</v>
-      </c>
-      <c r="B730">
-        <v>256.51</v>
-      </c>
-    </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A731" s="1">
-        <v>42953</v>
-      </c>
-      <c r="B731">
-        <v>261.57</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A732" s="1">
-        <v>42954</v>
-      </c>
-      <c r="B732">
-        <v>269.18</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A733" s="1">
-        <v>42955</v>
-      </c>
-      <c r="B733">
-        <v>296.77</v>
-      </c>
-    </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A734" s="1">
-        <v>42956</v>
-      </c>
-      <c r="B734">
-        <v>296.02999999999997</v>
-      </c>
-    </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A735" s="1">
-        <v>42957</v>
-      </c>
-      <c r="B735">
-        <v>295.89</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A736" s="1">
-        <v>42958</v>
-      </c>
-      <c r="B736">
-        <v>308.86</v>
-      </c>
-    </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A737" s="1">
-        <v>42959</v>
-      </c>
-      <c r="B737">
-        <v>310.60000000000002</v>
-      </c>
-    </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A738" s="1">
-        <v>42960</v>
-      </c>
-      <c r="B738">
-        <v>298.06</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A739" s="1">
-        <v>42961</v>
-      </c>
-      <c r="B739">
-        <v>300.10000000000002</v>
-      </c>
-    </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A740" s="1">
-        <v>42962</v>
-      </c>
-      <c r="B740">
-        <v>289.82</v>
-      </c>
-    </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A741" s="1">
-        <v>42963</v>
-      </c>
-      <c r="B741">
-        <v>302.27</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A742" s="1">
-        <v>42964</v>
-      </c>
-      <c r="B742">
-        <v>301.45999999999998</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A743" s="1">
-        <v>42965</v>
-      </c>
-      <c r="B743">
-        <v>295.58999999999997</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A744" s="1">
-        <v>42966</v>
-      </c>
-      <c r="B744">
-        <v>297.47000000000003</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A745" s="1">
-        <v>42967</v>
-      </c>
-      <c r="B745">
-        <v>301.43</v>
-      </c>
-    </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A746" s="1">
-        <v>42968</v>
-      </c>
-      <c r="B746">
-        <v>321.58999999999997</v>
-      </c>
-    </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A747" s="1">
-        <v>42969</v>
-      </c>
-      <c r="B747">
-        <v>314.79000000000002</v>
-      </c>
-    </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A748" s="1">
-        <v>42970</v>
-      </c>
-      <c r="B748">
-        <v>317.52</v>
-      </c>
-    </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A749" s="1">
-        <v>42971</v>
-      </c>
-      <c r="B749">
-        <v>325.61</v>
-      </c>
-    </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A750" s="1">
-        <v>42972</v>
-      </c>
-      <c r="B750">
-        <v>331.92</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A751" s="1">
-        <v>42973</v>
-      </c>
-      <c r="B751">
-        <v>333.88</v>
-      </c>
-    </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A752" s="1">
-        <v>42974</v>
-      </c>
-      <c r="B752">
-        <v>347.89</v>
-      </c>
-    </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A753" s="1">
-        <v>42975</v>
-      </c>
-      <c r="B753">
-        <v>347.75</v>
-      </c>
-    </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A754" s="1">
-        <v>42976</v>
-      </c>
-      <c r="B754">
-        <v>370.67</v>
-      </c>
-    </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A755" s="1">
-        <v>42977</v>
-      </c>
-      <c r="B755">
-        <v>378.49</v>
-      </c>
-    </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A756" s="1">
-        <v>42978</v>
-      </c>
-      <c r="B756">
-        <v>383.04</v>
-      </c>
-    </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A757" s="1">
-        <v>42979</v>
-      </c>
-      <c r="B757">
-        <v>387.74</v>
-      </c>
-    </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A758" s="1">
-        <v>42980</v>
-      </c>
-      <c r="B758">
-        <v>348.98</v>
-      </c>
-    </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A759" s="1">
-        <v>42981</v>
-      </c>
-      <c r="B759">
-        <v>347.48</v>
-      </c>
-    </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A760" s="1">
-        <v>42982</v>
-      </c>
-      <c r="B760">
-        <v>295.17</v>
-      </c>
-    </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A761" s="1">
-        <v>42983</v>
-      </c>
-      <c r="B761">
-        <v>312.99</v>
-      </c>
-    </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A762" s="1">
-        <v>42984</v>
-      </c>
-      <c r="B762">
-        <v>334.34</v>
-      </c>
-    </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A763" s="1">
-        <v>42985</v>
-      </c>
-      <c r="B763">
-        <v>329.43</v>
-      </c>
-    </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A764" s="1">
-        <v>42986</v>
-      </c>
-      <c r="B764">
-        <v>296.5</v>
-      </c>
-    </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A765" s="1">
-        <v>42987</v>
-      </c>
-      <c r="B765">
-        <v>294.39999999999998</v>
-      </c>
-    </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A766" s="1">
-        <v>42988</v>
-      </c>
-      <c r="B766">
-        <v>288.75</v>
-      </c>
-    </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A767" s="1">
-        <v>42989</v>
-      </c>
-      <c r="B767">
-        <v>294.52999999999997</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A768" s="1">
-        <v>42990</v>
-      </c>
-      <c r="B768">
-        <v>291.45999999999998</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A769" s="1">
-        <v>42991</v>
-      </c>
-      <c r="B769">
-        <v>277.11</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A770" s="1">
-        <v>42992</v>
-      </c>
-      <c r="B770">
-        <v>213.91</v>
-      </c>
-    </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A771" s="1">
-        <v>42993</v>
-      </c>
-      <c r="B771">
-        <v>250.46</v>
-      </c>
-    </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A772" s="1">
-        <v>42994</v>
-      </c>
-      <c r="B772">
-        <v>246.52</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A773" s="1">
-        <v>42995</v>
-      </c>
-      <c r="B773">
-        <v>251.75</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A774" s="1">
-        <v>42996</v>
-      </c>
-      <c r="B774">
-        <v>293.5</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A775" s="1">
-        <v>42997</v>
-      </c>
-      <c r="B775">
-        <v>282.8</v>
-      </c>
-    </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A776" s="1">
-        <v>42998</v>
-      </c>
-      <c r="B776">
-        <v>283.74</v>
-      </c>
-    </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A777" s="1">
-        <v>42999</v>
-      </c>
-      <c r="B777">
-        <v>258.58</v>
-      </c>
-    </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A778" s="1">
-        <v>43000</v>
-      </c>
-      <c r="B778">
-        <v>264.31</v>
-      </c>
-    </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A779" s="1">
-        <v>43001</v>
-      </c>
-      <c r="B779">
-        <v>286.17</v>
-      </c>
-    </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A780" s="1">
-        <v>43002</v>
-      </c>
-      <c r="B780">
-        <v>282.48</v>
-      </c>
-    </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A781" s="1">
-        <v>43003</v>
-      </c>
-      <c r="B781">
-        <v>292.33</v>
-      </c>
-    </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A782" s="1">
-        <v>43004</v>
-      </c>
-      <c r="B782">
-        <v>287.44</v>
-      </c>
-    </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A783" s="1">
-        <v>43005</v>
-      </c>
-      <c r="B783">
-        <v>306.47000000000003</v>
-      </c>
-    </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A784" s="1">
-        <v>43006</v>
-      </c>
-      <c r="B784">
-        <v>299.14999999999998</v>
-      </c>
-    </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A785" s="1">
-        <v>43007</v>
-      </c>
-      <c r="B785">
-        <v>291.47000000000003</v>
-      </c>
-    </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A786" s="1">
-        <v>43008</v>
-      </c>
-      <c r="B786">
-        <v>301.45999999999998</v>
-      </c>
-    </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A787" s="1">
-        <v>43009</v>
-      </c>
-      <c r="B787">
-        <v>302.33999999999997</v>
-      </c>
-    </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A788" s="1">
-        <v>43010</v>
-      </c>
-      <c r="B788">
-        <v>297.48</v>
-      </c>
-    </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A789" s="1">
-        <v>43011</v>
-      </c>
-      <c r="B789">
-        <v>292.45999999999998</v>
-      </c>
-    </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A790" s="1">
-        <v>43012</v>
-      </c>
-      <c r="B790">
-        <v>292.66000000000003</v>
-      </c>
-    </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A791" s="1">
-        <v>43013</v>
-      </c>
-      <c r="B791">
-        <v>295.86</v>
-      </c>
-    </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A792" s="1">
-        <v>43014</v>
-      </c>
-      <c r="B792">
-        <v>308.58999999999997</v>
-      </c>
-    </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A793" s="1">
-        <v>43015</v>
-      </c>
-      <c r="B793">
-        <v>311.12</v>
-      </c>
-    </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A794" s="1">
-        <v>43016</v>
-      </c>
-      <c r="B794">
-        <v>308.61</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A795" s="1">
-        <v>43017</v>
-      </c>
-      <c r="B795">
-        <v>297.39</v>
-      </c>
-    </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A796" s="1">
-        <v>43018</v>
-      </c>
-      <c r="B796">
-        <v>299.87</v>
-      </c>
-    </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A797" s="1">
-        <v>43019</v>
-      </c>
-      <c r="B797">
-        <v>303.45999999999998</v>
-      </c>
-    </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A798" s="1">
-        <v>43020</v>
-      </c>
-      <c r="B798">
-        <v>304.14</v>
-      </c>
-    </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A799" s="1">
-        <v>43021</v>
-      </c>
-      <c r="B799">
-        <v>338.76</v>
-      </c>
-    </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A800" s="1">
-        <v>43022</v>
-      </c>
-      <c r="B800">
-        <v>339.63</v>
-      </c>
-    </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A801" s="1">
-        <v>43023</v>
-      </c>
-      <c r="B801">
-        <v>336.6</v>
-      </c>
-    </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A802" s="1">
-        <v>43024</v>
-      </c>
-      <c r="B802">
-        <v>333.38</v>
-      </c>
-    </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A803" s="1">
-        <v>43025</v>
-      </c>
-      <c r="B803">
-        <v>317.08</v>
-      </c>
-    </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A804" s="1">
-        <v>43026</v>
-      </c>
-      <c r="B804">
-        <v>314.32</v>
-      </c>
-    </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A805" s="1">
-        <v>43027</v>
-      </c>
-      <c r="B805">
-        <v>308.08999999999997</v>
-      </c>
-    </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A806" s="1">
-        <v>43028</v>
-      </c>
-      <c r="B806">
-        <v>304.01</v>
-      </c>
-    </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A807" s="1">
-        <v>43029</v>
-      </c>
-      <c r="B807">
-        <v>300.19</v>
-      </c>
-    </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A808" s="1">
-        <v>43030</v>
-      </c>
-      <c r="B808">
-        <v>295.45</v>
-      </c>
-    </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A809" s="1">
-        <v>43031</v>
-      </c>
-      <c r="B809">
-        <v>286.95</v>
-      </c>
-    </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A810" s="1">
-        <v>43032</v>
-      </c>
-      <c r="B810">
-        <v>298.33</v>
-      </c>
-    </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A811" s="1">
-        <v>43033</v>
-      </c>
-      <c r="B811">
-        <v>297.93</v>
-      </c>
-    </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A812" s="1">
-        <v>43034</v>
-      </c>
-      <c r="B812">
-        <v>296.52999999999997</v>
-      </c>
-    </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A813" s="1">
-        <v>43035</v>
-      </c>
-      <c r="B813">
-        <v>297.42</v>
-      </c>
-    </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A814" s="1">
-        <v>43036</v>
-      </c>
-      <c r="B814">
-        <v>296.3</v>
-      </c>
-    </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A815" s="1">
-        <v>43037</v>
-      </c>
-      <c r="B815">
-        <v>305.08999999999997</v>
-      </c>
-    </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A816" s="1">
-        <v>43038</v>
-      </c>
-      <c r="B816">
-        <v>307.75</v>
-      </c>
-    </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A817" s="1">
-        <v>43039</v>
-      </c>
-      <c r="B817">
-        <v>305.88</v>
-      </c>
-    </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A818" s="1">
-        <v>43040</v>
-      </c>
-      <c r="B818">
-        <v>291.69</v>
-      </c>
-    </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A819" s="1">
-        <v>43041</v>
-      </c>
-      <c r="B819">
-        <v>287.43</v>
-      </c>
-    </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A820" s="1">
-        <v>43042</v>
-      </c>
-      <c r="B820">
-        <v>305.70999999999998</v>
-      </c>
-    </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A821" s="1">
-        <v>43043</v>
-      </c>
-      <c r="B821">
-        <v>300.47000000000003</v>
-      </c>
-    </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A822" s="1">
-        <v>43044</v>
-      </c>
-      <c r="B822">
-        <v>296.26</v>
-      </c>
-    </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A823" s="1">
-        <v>43045</v>
-      </c>
-      <c r="B823">
-        <v>298.89</v>
-      </c>
-    </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A824" s="1">
-        <v>43046</v>
-      </c>
-      <c r="B824">
-        <v>294.66000000000003</v>
-      </c>
-    </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A825" s="1">
-        <v>43047</v>
-      </c>
-      <c r="B825">
-        <v>309.07</v>
-      </c>
-    </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A826" s="1">
-        <v>43048</v>
-      </c>
-      <c r="B826">
-        <v>320.88</v>
-      </c>
-    </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A827" s="1">
-        <v>43049</v>
-      </c>
-      <c r="B827">
-        <v>299.25</v>
-      </c>
-    </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A828" s="1">
-        <v>43050</v>
-      </c>
-      <c r="B828">
-        <v>314.68</v>
-      </c>
-    </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A829" s="1">
-        <v>43051</v>
-      </c>
-      <c r="B829">
-        <v>307.91000000000003</v>
-      </c>
-    </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A830" s="1">
-        <v>43052</v>
-      </c>
-      <c r="B830">
-        <v>316.72000000000003</v>
-      </c>
-    </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A831" s="1">
-        <v>43053</v>
-      </c>
-      <c r="B831">
-        <v>337.63</v>
-      </c>
-    </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A832" s="1">
-        <v>43054</v>
-      </c>
-      <c r="B832">
-        <v>333.36</v>
-      </c>
-    </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A833" s="1">
-        <v>43055</v>
-      </c>
-      <c r="B833">
-        <v>330.92</v>
-      </c>
-    </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A834" s="1">
-        <v>43056</v>
-      </c>
-      <c r="B834">
-        <v>332.39</v>
-      </c>
-    </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A835" s="1">
-        <v>43057</v>
-      </c>
-      <c r="B835">
-        <v>347.61</v>
-      </c>
-    </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A836" s="1">
-        <v>43058</v>
-      </c>
-      <c r="B836">
-        <v>354.39</v>
-      </c>
-    </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A837" s="1">
-        <v>43059</v>
-      </c>
-      <c r="B837">
-        <v>366.73</v>
-      </c>
-    </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A838" s="1">
-        <v>43060</v>
-      </c>
-      <c r="B838">
-        <v>360.4</v>
-      </c>
-    </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A839" s="1">
-        <v>43061</v>
-      </c>
-      <c r="B839">
-        <v>380.65</v>
-      </c>
-    </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A840" s="1">
-        <v>43062</v>
-      </c>
-      <c r="B840">
-        <v>410.17</v>
-      </c>
-    </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A841" s="1">
-        <v>43063</v>
-      </c>
-      <c r="B841">
-        <v>474.91</v>
-      </c>
-    </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A842" s="1">
-        <v>43064</v>
-      </c>
-      <c r="B842">
-        <v>466.28</v>
-      </c>
-    </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A843" s="1">
-        <v>43065</v>
-      </c>
-      <c r="B843">
-        <v>471.33</v>
-      </c>
-    </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A844" s="1">
-        <v>43066</v>
-      </c>
-      <c r="B844">
-        <v>480.36</v>
-      </c>
-    </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A845" s="1">
-        <v>43067</v>
-      </c>
-      <c r="B845">
-        <v>472.9</v>
-      </c>
-    </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A846" s="1">
-        <v>43068</v>
-      </c>
-      <c r="B846">
-        <v>427.52</v>
-      </c>
-    </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A847" s="1">
-        <v>43069</v>
-      </c>
-      <c r="B847">
-        <v>447.11</v>
-      </c>
-    </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A848" s="1">
-        <v>43070</v>
-      </c>
-      <c r="B848">
-        <v>466.54</v>
-      </c>
-    </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A849" s="1">
-        <v>43071</v>
-      </c>
-      <c r="B849">
-        <v>463.45</v>
-      </c>
-    </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A850" s="1">
-        <v>43072</v>
-      </c>
-      <c r="B850">
-        <v>465.85</v>
-      </c>
-    </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A851" s="1">
-        <v>43073</v>
-      </c>
-      <c r="B851">
-        <v>470.2</v>
-      </c>
-    </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A852" s="1">
-        <v>43074</v>
-      </c>
-      <c r="B852">
-        <v>463.28</v>
-      </c>
-    </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A853" s="1">
-        <v>43075</v>
-      </c>
-      <c r="B853">
-        <v>428.59</v>
-      </c>
-    </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A854" s="1">
-        <v>43076</v>
-      </c>
-      <c r="B854">
-        <v>434.41</v>
-      </c>
-    </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A855" s="1">
-        <v>43077</v>
-      </c>
-      <c r="B855">
-        <v>456.03</v>
-      </c>
-    </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A856" s="1">
-        <v>43078</v>
-      </c>
-      <c r="B856">
-        <v>473.5</v>
-      </c>
-    </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A857" s="1">
-        <v>43079</v>
-      </c>
-      <c r="B857">
-        <v>441.72</v>
-      </c>
-    </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A858" s="1">
-        <v>43080</v>
-      </c>
-      <c r="B858">
-        <v>515.14</v>
-      </c>
-    </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A859" s="1">
-        <v>43081</v>
-      </c>
-      <c r="B859">
-        <v>621.13</v>
-      </c>
-    </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A704" s="1"/>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A705" s="1"/>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A706" s="1"/>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A707" s="1"/>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A708" s="1"/>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A709" s="1"/>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A710" s="1"/>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A711" s="1"/>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A712" s="1"/>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A713" s="1"/>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A714" s="1"/>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A715" s="1"/>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A716" s="1"/>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A717" s="1"/>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A718" s="1"/>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A719" s="1"/>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A720" s="1"/>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A721" s="1"/>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A722" s="1"/>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A723" s="1"/>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A724" s="1"/>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A725" s="1"/>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A726" s="1"/>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A727" s="1"/>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A728" s="1"/>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A729" s="1"/>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A730" s="1"/>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A731" s="1"/>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A732" s="1"/>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A733" s="1"/>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A734" s="1"/>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A735" s="1"/>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A736" s="1"/>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A737" s="1"/>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A738" s="1"/>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A739" s="1"/>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A740" s="1"/>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A741" s="1"/>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A742" s="1"/>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A743" s="1"/>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A744" s="1"/>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A745" s="1"/>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A746" s="1"/>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A747" s="1"/>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A748" s="1"/>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A749" s="1"/>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A750" s="1"/>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A751" s="1"/>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A752" s="1"/>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A753" s="1"/>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A754" s="1"/>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A755" s="1"/>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A756" s="1"/>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A757" s="1"/>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A758" s="1"/>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A759" s="1"/>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A760" s="1"/>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A761" s="1"/>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A762" s="1"/>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A763" s="1"/>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A764" s="1"/>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A765" s="1"/>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A766" s="1"/>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A767" s="1"/>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A768" s="1"/>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A769" s="1"/>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A770" s="1"/>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A771" s="1"/>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A772" s="1"/>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A773" s="1"/>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A774" s="1"/>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A775" s="1"/>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A776" s="1"/>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A777" s="1"/>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A778" s="1"/>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A779" s="1"/>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A780" s="1"/>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A781" s="1"/>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A782" s="1"/>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A783" s="1"/>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A784" s="1"/>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A785" s="1"/>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A786" s="1"/>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A787" s="1"/>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A788" s="1"/>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A789" s="1"/>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A790" s="1"/>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A791" s="1"/>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A792" s="1"/>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A793" s="1"/>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A794" s="1"/>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A795" s="1"/>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A796" s="1"/>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A797" s="1"/>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A798" s="1"/>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A799" s="1"/>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A800" s="1"/>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A801" s="1"/>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A802" s="1"/>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A803" s="1"/>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A804" s="1"/>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A805" s="1"/>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A806" s="1"/>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A807" s="1"/>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A808" s="1"/>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A809" s="1"/>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A810" s="1"/>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A811" s="1"/>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A812" s="1"/>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A813" s="1"/>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A814" s="1"/>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A815" s="1"/>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A816" s="1"/>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A817" s="1"/>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A818" s="1"/>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A819" s="1"/>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A820" s="1"/>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A821" s="1"/>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A822" s="1"/>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A823" s="1"/>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A824" s="1"/>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A825" s="1"/>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A826" s="1"/>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A827" s="1"/>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A828" s="1"/>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A829" s="1"/>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A830" s="1"/>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A831" s="1"/>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A832" s="1"/>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A833" s="1"/>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A834" s="1"/>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A835" s="1"/>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A836" s="1"/>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A837" s="1"/>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A838" s="1"/>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A839" s="1"/>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A840" s="1"/>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A841" s="1"/>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A842" s="1"/>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A843" s="1"/>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A844" s="1"/>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A845" s="1"/>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A846" s="1"/>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A847" s="1"/>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A848" s="1"/>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A849" s="1"/>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A850" s="1"/>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A851" s="1"/>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A852" s="1"/>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A853" s="1"/>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A854" s="1"/>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A855" s="1"/>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A856" s="1"/>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A857" s="1"/>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A858" s="1"/>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A859" s="1"/>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A860" s="1"/>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A861" s="1"/>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A862" s="1"/>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A863" s="1"/>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A864" s="1"/>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.15">
